--- a/motorduration.xlsx
+++ b/motorduration.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/051867489d37b9f6/Research project/Mix Local SRMA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/051867489d37b9f6/Research project/Mix Local SRMA/mixlocal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{FD9F69E7-98ED-4850-952C-53829CFEB9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABC48832-1E74-47D2-A243-0614CD3A98BC}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{FD9F69E7-98ED-4850-952C-53829CFEB9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CC77B18-BA53-4CF3-B2D3-6F0604685AF4}"/>
   <bookViews>
-    <workbookView xWindow="16248" yWindow="5400" windowWidth="24168" windowHeight="14388" xr2:uid="{DDB2E0A9-8199-4ADD-BD8A-A8692887E7A9}"/>
+    <workbookView xWindow="2928" yWindow="3336" windowWidth="24168" windowHeight="14388" xr2:uid="{DDB2E0A9-8199-4ADD-BD8A-A8692887E7A9}"/>
   </bookViews>
   <sheets>
     <sheet name="motor duration" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>study</t>
   </si>
@@ -80,9 +80,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>both</t>
-  </si>
-  <si>
     <t>Pongraweewan</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
   </si>
   <si>
     <t>yes</t>
-  </si>
-  <si>
-    <t>mix</t>
   </si>
   <si>
     <t>Laur</t>
@@ -178,10 +172,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -504,7 +494,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:K12"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,12 +566,12 @@
         <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>2016</v>
@@ -605,7 +595,7 @@
         <v>369</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
@@ -616,7 +606,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>2014</v>
@@ -640,18 +630,18 @@
         <v>26.73</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>2012</v>
@@ -675,18 +665,18 @@
         <v>343.08</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>2011</v>
@@ -710,7 +700,7 @@
         <v>282</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
@@ -721,7 +711,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>2009</v>
@@ -745,18 +735,18 @@
         <v>226.64</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
         <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>2009</v>
@@ -780,18 +770,18 @@
         <v>238.83</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>2006</v>
@@ -815,7 +805,7 @@
         <v>91.04</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J9" t="s">
         <v>13</v>
@@ -826,7 +816,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>2022</v>
@@ -850,7 +840,7 @@
         <v>46.4</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
         <v>13</v>
@@ -861,7 +851,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>2024</v>
@@ -885,18 +875,18 @@
         <v>186</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>1998</v>
@@ -920,7 +910,7 @@
         <v>91</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J12" t="s">
         <v>13</v>

--- a/motorduration.xlsx
+++ b/motorduration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/051867489d37b9f6/Research project/Mix Local SRMA/mixlocal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{FD9F69E7-98ED-4850-952C-53829CFEB9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CC77B18-BA53-4CF3-B2D3-6F0604685AF4}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{FD9F69E7-98ED-4850-952C-53829CFEB9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D701B17-7384-4AD9-AFDF-2BD57DC77402}"/>
   <bookViews>
-    <workbookView xWindow="2928" yWindow="3336" windowWidth="24168" windowHeight="14388" xr2:uid="{DDB2E0A9-8199-4ADD-BD8A-A8692887E7A9}"/>
+    <workbookView xWindow="21936" yWindow="4908" windowWidth="24168" windowHeight="14388" xr2:uid="{DDB2E0A9-8199-4ADD-BD8A-A8692887E7A9}"/>
   </bookViews>
   <sheets>
     <sheet name="motor duration" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>study</t>
   </si>
@@ -119,7 +119,16 @@
     <t>Aguilera</t>
   </si>
   <si>
-    <t>Buoaziz</t>
+    <t>Bouaziz</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>author</t>
   </si>
 </sst>
 </file>
@@ -172,6 +181,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -491,432 +504,479 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77107AAE-2478-4FB2-9632-295674F82D4E}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>B2 &amp; " " &amp; C2</f>
+        <v>Bobik 2020</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>2020</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>41</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>19</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>656.9</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>436</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>167.9</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>104.7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>B3 &amp; " " &amp; C3</f>
+        <v>Pongraweewan 2016</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>2016</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>46</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>44</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>574.20000000000005</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>690</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>340.2</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>369</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>B4 &amp; " " &amp; C4</f>
+        <v>Rohan 2014</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>2014</v>
-      </c>
-      <c r="C4">
-        <v>25</v>
       </c>
       <c r="D4">
         <v>25</v>
       </c>
       <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4">
         <v>172.64</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>183.76</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>40.86</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>26.73</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
       </c>
       <c r="K4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f>B5 &amp; " " &amp; C5</f>
+        <v>Laur 2012</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>2012</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>26</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>23</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1109</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>556</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>257.87</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>343.08</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>13</v>
       </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f>B6 &amp; " " &amp; C6</f>
+        <v>Gadsden 2011</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>2011</v>
-      </c>
-      <c r="C6">
-        <v>21</v>
       </c>
       <c r="D6">
         <v>21</v>
       </c>
       <c r="E6">
+        <v>21</v>
+      </c>
+      <c r="F6">
         <v>984</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>690</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>564</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>282</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>15</v>
-      </c>
-      <c r="J6" t="s">
-        <v>13</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f>B7 &amp; " " &amp; C7</f>
+        <v>Cuvillon Fem 2009</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>2009</v>
-      </c>
-      <c r="C7">
-        <v>20</v>
       </c>
       <c r="D7">
         <v>20</v>
       </c>
       <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
         <v>990</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>690</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>281.86</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>226.64</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>21</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>13</v>
       </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>B8 &amp; " " &amp; C8</f>
+        <v>Cuvillon Sci 2009</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>2009</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>20</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>22</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>951.4</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>657.1</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>237.09</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>238.83</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>13</v>
       </c>
-      <c r="K8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>B9 &amp; " " &amp; C9</f>
+        <v>Freitag 2006</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>2006</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>20</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>40</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>745</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>325.8</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>47.1</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>91.04</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>24</v>
-      </c>
-      <c r="J9" t="s">
-        <v>13</v>
       </c>
       <c r="K9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="L9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>B10 &amp; " " &amp; C10</f>
+        <v>Abdelhady 2022</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>2022</v>
-      </c>
-      <c r="C10">
-        <v>22</v>
       </c>
       <c r="D10">
         <v>22</v>
       </c>
       <c r="E10">
+        <v>22</v>
+      </c>
+      <c r="F10">
         <v>562.67999999999995</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>405.36</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>23.72</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>46.4</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>15</v>
-      </c>
-      <c r="J10" t="s">
-        <v>13</v>
       </c>
       <c r="K10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>B11 &amp; " " &amp; C11</f>
+        <v>Aguilera 2024</v>
+      </c>
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>2024</v>
-      </c>
-      <c r="C11">
-        <v>20</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
         <v>1704</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1134</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>312</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>186</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>15</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>13</v>
       </c>
-      <c r="K11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>B12 &amp; " " &amp; C12</f>
+        <v>Bouaziz 1998</v>
+      </c>
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>1998</v>
-      </c>
-      <c r="C12">
-        <v>17</v>
       </c>
       <c r="D12">
         <v>17</v>
       </c>
       <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="F12">
         <v>466</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>231</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>154</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>91</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>15</v>
-      </c>
-      <c r="J12" t="s">
-        <v>13</v>
       </c>
       <c r="K12" t="s">
         <v>13</v>
+      </c>
+      <c r="L12" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
